--- a/Annexes/jeu_donnees_final.xlsx
+++ b/Annexes/jeu_donnees_final.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\ING1\projet_fin_annee\projet_fin_d_annee\Annexes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA67B6A-5435-4AB8-B0B3-2751B479252C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624758CE-FE91-47FF-82D3-C5B5AD993500}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3" xr2:uid="{4CFD88F8-A435-406B-86AE-50E0EF38730A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="4" xr2:uid="{4CFD88F8-A435-406B-86AE-50E0EF38730A}"/>
   </bookViews>
   <sheets>
     <sheet name="GMI" sheetId="1" r:id="rId1"/>
     <sheet name="GMF" sheetId="2" r:id="rId2"/>
     <sheet name="GI" sheetId="3" r:id="rId3"/>
     <sheet name="Base de test GMF" sheetId="5" r:id="rId4"/>
-    <sheet name="Base de test GMI " sheetId="4" r:id="rId5"/>
-    <sheet name="Base de test GI" sheetId="6" r:id="rId6"/>
+    <sheet name="test GMF" sheetId="7" r:id="rId5"/>
+    <sheet name="Base de test GMI " sheetId="4" r:id="rId6"/>
+    <sheet name="test GMI" sheetId="9" r:id="rId7"/>
+    <sheet name="Base de test GI" sheetId="6" r:id="rId8"/>
+    <sheet name="test GI" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="332">
   <si>
     <t>Identifiant</t>
   </si>
@@ -966,13 +969,73 @@
   </si>
   <si>
     <t>Liste de vœux</t>
+  </si>
+  <si>
+    <t>Affectation_Predite</t>
+  </si>
+  <si>
+    <t>MMF,Actuariat</t>
+  </si>
+  <si>
+    <t>Actuariat,MMF</t>
+  </si>
+  <si>
+    <t>IA,DS,Fintech,BI</t>
+  </si>
+  <si>
+    <t>DS,IA,BI,Fintech</t>
+  </si>
+  <si>
+    <t>IA,BI,DS,Fintech</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>Fintech</t>
+  </si>
+  <si>
+    <t>Fintech,BI,DS,IA</t>
+  </si>
+  <si>
+    <t>DS,Fintech,BI,IA</t>
+  </si>
+  <si>
+    <t>IA,INEM,VC,ICC,CS</t>
+  </si>
+  <si>
+    <t>CS,IA,INEM,VC,ICC</t>
+  </si>
+  <si>
+    <t>IA,CS,INEM,VC,ICC</t>
+  </si>
+  <si>
+    <t>IA,INEM,CS,VC,ICC</t>
+  </si>
+  <si>
+    <t>VC,ICC,IA,INEM,CS</t>
+  </si>
+  <si>
+    <t>ICC,IA,INEM,VC,CS</t>
+  </si>
+  <si>
+    <t>VC,IA,ICC,CS,INEM</t>
+  </si>
+  <si>
+    <t>IA,INEM,VC,CC,CS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,8 +1072,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1102,6 +1180,16 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1142,7 +1230,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1160,8 +1248,10 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="5"/>
@@ -1182,8 +1272,10 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="16"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="15"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="17"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="18"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="19">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="6" builtinId="34"/>
     <cellStyle name="20% - Accent4" xfId="10" builtinId="42"/>
@@ -1198,7 +1290,9 @@
     <cellStyle name="Accent4" xfId="9" builtinId="41"/>
     <cellStyle name="Accent6" xfId="13" builtinId="49"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Input" xfId="17" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
@@ -5430,7 +5524,7 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5485,1994 +5579,1997 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>10000250</v>
+        <v>10000291</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>10.25</v>
       </c>
       <c r="E2">
-        <v>12.5</v>
+        <v>9.75</v>
       </c>
       <c r="F2">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>12.25</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J2">
-        <v>10.25</v>
+        <v>12.25</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K5" si="0">AVERAGE(D2:J2)</f>
-        <v>13.392857142857142</v>
-      </c>
-      <c r="L2">
-        <v>274.375</v>
+        <f t="shared" ref="K2:K33" si="0">AVERAGE(D2:J2)</f>
+        <v>11</v>
+      </c>
+      <c r="L2" s="16">
+        <v>216375</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>10000251</v>
+        <v>10000252</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="F3">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>14.75</v>
+        <v>15</v>
       </c>
       <c r="H3">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>15.25</v>
+        <v>16.928571428571427</v>
       </c>
       <c r="L3">
-        <v>307.25</v>
+        <v>342.5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>10000252</v>
+        <v>10000257</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
         <v>16.928571428571427</v>
       </c>
       <c r="L4">
-        <v>342.5</v>
+        <v>341.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>10000253</v>
+        <v>10000285</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="E5">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>12.25</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="H5">
-        <v>14.75</v>
+        <v>17</v>
       </c>
       <c r="I5">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="J5">
-        <v>14.25</v>
+        <v>15.25</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>13.107142857142858</v>
+        <v>15.964285714285714</v>
       </c>
       <c r="L5">
-        <v>261.75</v>
+        <v>319.125</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>10000254</v>
+        <v>10000286</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="D6">
-        <v>12.2</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>9.75</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>13</v>
       </c>
       <c r="I6">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K38" si="1">AVERAGE(D6:J6)</f>
-        <v>11.778571428571428</v>
+        <f t="shared" si="0"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="L6">
-        <v>263.64999999999998</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>10000255</v>
+        <v>10000251</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D7">
+        <v>15.5</v>
+      </c>
+      <c r="E7">
+        <v>15.5</v>
+      </c>
+      <c r="F7">
+        <v>18.5</v>
+      </c>
+      <c r="G7">
+        <v>14.75</v>
+      </c>
+      <c r="H7">
+        <v>12.5</v>
+      </c>
+      <c r="I7">
         <v>15</v>
       </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>10.5</v>
-      </c>
-      <c r="G7">
-        <v>9.25</v>
-      </c>
-      <c r="H7">
-        <v>14</v>
-      </c>
-      <c r="I7">
-        <v>14</v>
-      </c>
       <c r="J7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
-        <v>12.964285714285714</v>
+        <f t="shared" si="0"/>
+        <v>15.25</v>
       </c>
       <c r="L7">
-        <v>256.75</v>
+        <v>307.25</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>10000256</v>
+        <v>10000260</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>232</v>
       </c>
       <c r="D8">
-        <v>17.25</v>
+        <v>14.25</v>
       </c>
       <c r="E8">
-        <v>12.2</v>
+        <v>16.5</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H8">
         <v>14</v>
       </c>
       <c r="I8">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="J8">
-        <v>10.5</v>
+        <v>15.75</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
-        <v>12.564285714285715</v>
+        <f t="shared" si="0"/>
+        <v>15.285714285714286</v>
       </c>
       <c r="L8">
-        <v>260.375</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>10000257</v>
+        <v>10000264</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I9">
         <v>17</v>
       </c>
       <c r="J9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
-        <v>16.928571428571427</v>
+        <f t="shared" si="0"/>
+        <v>14.714285714285714</v>
       </c>
       <c r="L9">
-        <v>341.5</v>
+        <v>298.5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10000258</v>
+        <v>10000300</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>254</v>
       </c>
       <c r="D10">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="E10">
+        <v>16.5</v>
+      </c>
+      <c r="F10">
         <v>14</v>
       </c>
-      <c r="F10">
-        <v>13.5</v>
-      </c>
       <c r="G10">
-        <v>12.25</v>
+        <v>11.5</v>
       </c>
       <c r="H10">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I10">
-        <v>9.75</v>
+        <v>17</v>
       </c>
       <c r="J10">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
-        <v>12.571428571428571</v>
+        <f t="shared" si="0"/>
+        <v>14.857142857142858</v>
       </c>
       <c r="L10">
-        <v>258.375</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10000259</v>
+        <v>10000270</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>13.25</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>11.25</v>
+        <v>14.5</v>
       </c>
       <c r="H11">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="I11">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="J11">
-        <v>15.75</v>
+        <v>15</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
-        <v>13.321428571428571</v>
+        <f t="shared" si="0"/>
+        <v>14.642857142857142</v>
       </c>
       <c r="L11">
-        <v>253</v>
+        <v>291.5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10000260</v>
+        <v>10000288</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
+        <v>90</v>
       </c>
       <c r="D12">
-        <v>14.25</v>
+        <v>17.5</v>
       </c>
       <c r="E12">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I12">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="J12">
-        <v>15.75</v>
+        <v>10.5</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
-        <v>15.285714285714286</v>
+        <f t="shared" si="0"/>
+        <v>14.142857142857142</v>
       </c>
       <c r="L12">
-        <v>305</v>
+        <v>291.5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>10000261</v>
+        <v>10000262</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="E13">
         <v>13</v>
       </c>
       <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>15.75</v>
+      </c>
+      <c r="H13">
         <v>12</v>
       </c>
-      <c r="G13">
-        <v>10.5</v>
-      </c>
-      <c r="H13">
-        <v>11</v>
-      </c>
       <c r="I13">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J13">
-        <v>14.75</v>
+        <v>14.45</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
-        <v>12.821428571428571</v>
+        <f t="shared" si="0"/>
+        <v>13.957142857142857</v>
       </c>
       <c r="L13">
-        <v>259.375</v>
+        <v>281.125</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>10000262</v>
+        <v>10000274</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>238</v>
       </c>
       <c r="D14">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="F14">
         <v>15</v>
       </c>
       <c r="G14">
-        <v>15.75</v>
+        <v>16</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="I14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J14">
         <v>14.45</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
-        <v>13.957142857142857</v>
+        <f t="shared" si="0"/>
+        <v>14.278571428571428</v>
       </c>
       <c r="L14">
-        <v>281.125</v>
+        <v>279.64999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>10000263</v>
+        <v>10000265</v>
       </c>
       <c r="B15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D15">
-        <v>12.2</v>
+        <v>16.75</v>
       </c>
       <c r="E15">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G15">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="H15">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="I15">
-        <v>14.75</v>
+        <v>12.25</v>
       </c>
       <c r="J15">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
-        <v>13.207142857142857</v>
+        <f t="shared" si="0"/>
+        <v>13.428571428571429</v>
       </c>
       <c r="L15">
-        <v>262.77499999999998</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>10000264</v>
+        <v>10000250</v>
       </c>
       <c r="B16" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="F16">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I16">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J16">
-        <v>15</v>
+        <v>10.25</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
-        <v>14.714285714285714</v>
+        <f t="shared" si="0"/>
+        <v>13.392857142857142</v>
       </c>
       <c r="L16">
-        <v>298.5</v>
+        <v>274.375</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>10000265</v>
+        <v>10000281</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C17" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D17">
-        <v>16.75</v>
+        <v>18.75</v>
       </c>
       <c r="E17">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G17">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="H17">
         <v>11</v>
       </c>
       <c r="I17">
-        <v>12.25</v>
+        <v>11.5</v>
       </c>
       <c r="J17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
-        <v>13.428571428571429</v>
+        <f t="shared" si="0"/>
+        <v>13.178571428571429</v>
       </c>
       <c r="L17">
-        <v>279</v>
+        <v>274.125</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
+        <v>10000277</v>
+      </c>
+      <c r="B18" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>14.25</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>13.5</v>
+      </c>
+      <c r="G18">
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <v>14</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>13.678571428571429</v>
+      </c>
+      <c r="L18">
+        <v>273.125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>10000289</v>
+      </c>
+      <c r="B19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>13.5</v>
+      </c>
+      <c r="H19">
+        <v>11</v>
+      </c>
+      <c r="I19">
+        <v>11</v>
+      </c>
+      <c r="J19">
+        <v>12.5</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>13.142857142857142</v>
+      </c>
+      <c r="L19">
+        <v>271.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10000283</v>
+      </c>
+      <c r="B20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>14.5</v>
+      </c>
+      <c r="G20">
+        <v>15</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <v>10.25</v>
+      </c>
+      <c r="J20">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>13.392857142857142</v>
+      </c>
+      <c r="L20">
+        <v>271.125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>10000268</v>
+      </c>
+      <c r="B21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>12.75</v>
+      </c>
+      <c r="E21">
+        <v>15.5</v>
+      </c>
+      <c r="F21">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <v>14.25</v>
+      </c>
+      <c r="H21">
+        <v>11</v>
+      </c>
+      <c r="I21">
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>13.071428571428571</v>
+      </c>
+      <c r="L21">
+        <v>267.125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10000276</v>
+      </c>
+      <c r="B22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>9.5</v>
+      </c>
+      <c r="H22">
+        <v>14</v>
+      </c>
+      <c r="I22">
+        <v>15</v>
+      </c>
+      <c r="J22">
+        <v>14</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>13.357142857142858</v>
+      </c>
+      <c r="L22">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>10000254</v>
+      </c>
+      <c r="B23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>12.2</v>
+      </c>
+      <c r="E23">
+        <v>10.5</v>
+      </c>
+      <c r="F23">
+        <v>9.75</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>13</v>
+      </c>
+      <c r="I23">
+        <v>17</v>
+      </c>
+      <c r="J23">
+        <v>13</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>11.778571428571428</v>
+      </c>
+      <c r="L23">
+        <v>263.64999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>10000263</v>
+      </c>
+      <c r="B24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24">
+        <v>12.2</v>
+      </c>
+      <c r="E24">
+        <v>16.5</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>13.5</v>
+      </c>
+      <c r="I24">
+        <v>14.75</v>
+      </c>
+      <c r="J24">
+        <v>12.5</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>13.207142857142857</v>
+      </c>
+      <c r="L24">
+        <v>262.77499999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>10000253</v>
+      </c>
+      <c r="B25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>13.5</v>
+      </c>
+      <c r="F25">
+        <v>12.25</v>
+      </c>
+      <c r="G25">
+        <v>11.5</v>
+      </c>
+      <c r="H25">
+        <v>14.75</v>
+      </c>
+      <c r="I25">
+        <v>11.5</v>
+      </c>
+      <c r="J25">
+        <v>14.25</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>13.107142857142858</v>
+      </c>
+      <c r="L25">
+        <v>261.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>10000272</v>
+      </c>
+      <c r="B26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>15.5</v>
+      </c>
+      <c r="F26">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>17.5</v>
+      </c>
+      <c r="H26">
+        <v>11</v>
+      </c>
+      <c r="I26">
+        <v>10.5</v>
+      </c>
+      <c r="J26">
+        <v>11</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>12.785714285714286</v>
+      </c>
+      <c r="L26">
+        <v>260.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>10000256</v>
+      </c>
+      <c r="B27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>17.25</v>
+      </c>
+      <c r="E27">
+        <v>12.2</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>13</v>
+      </c>
+      <c r="H27">
+        <v>14</v>
+      </c>
+      <c r="I27">
+        <v>15</v>
+      </c>
+      <c r="J27">
+        <v>10.5</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>12.564285714285715</v>
+      </c>
+      <c r="L27">
+        <v>260.375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>10000261</v>
+      </c>
+      <c r="B28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>10.5</v>
+      </c>
+      <c r="H28">
+        <v>11</v>
+      </c>
+      <c r="I28">
+        <v>12.5</v>
+      </c>
+      <c r="J28">
+        <v>14.75</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>12.821428571428571</v>
+      </c>
+      <c r="L28">
+        <v>259.375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>10000258</v>
+      </c>
+      <c r="B29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>15.5</v>
+      </c>
+      <c r="E29">
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <v>13.5</v>
+      </c>
+      <c r="G29">
+        <v>12.25</v>
+      </c>
+      <c r="H29">
+        <v>10.5</v>
+      </c>
+      <c r="I29">
+        <v>9.75</v>
+      </c>
+      <c r="J29">
+        <v>12.5</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>12.571428571428571</v>
+      </c>
+      <c r="L29">
+        <v>258.375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>10000255</v>
+      </c>
+      <c r="B30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>10.5</v>
+      </c>
+      <c r="G30">
+        <v>9.25</v>
+      </c>
+      <c r="H30">
+        <v>14</v>
+      </c>
+      <c r="I30">
+        <v>14</v>
+      </c>
+      <c r="J30">
+        <v>16</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>12.964285714285714</v>
+      </c>
+      <c r="L30">
+        <v>256.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>10000297</v>
+      </c>
+      <c r="B31" t="s">
+        <v>228</v>
+      </c>
+      <c r="C31" t="s">
+        <v>251</v>
+      </c>
+      <c r="D31">
+        <v>11.5</v>
+      </c>
+      <c r="E31">
+        <v>11</v>
+      </c>
+      <c r="F31">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>14.5</v>
+      </c>
+      <c r="H31">
+        <v>12</v>
+      </c>
+      <c r="I31">
+        <v>14</v>
+      </c>
+      <c r="J31">
+        <v>11</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>12.714285714285714</v>
+      </c>
+      <c r="L31">
+        <v>254.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>10000259</v>
+      </c>
+      <c r="B32" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32">
+        <v>13.25</v>
+      </c>
+      <c r="E32">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>11</v>
+      </c>
+      <c r="G32">
+        <v>11.25</v>
+      </c>
+      <c r="H32">
+        <v>11.5</v>
+      </c>
+      <c r="I32">
+        <v>14.5</v>
+      </c>
+      <c r="J32">
+        <v>15.75</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>13.321428571428571</v>
+      </c>
+      <c r="L32">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>10000298</v>
+      </c>
+      <c r="B33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" t="s">
+        <v>252</v>
+      </c>
+      <c r="D33">
+        <v>12.25</v>
+      </c>
+      <c r="E33">
+        <v>11</v>
+      </c>
+      <c r="F33">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+      <c r="H33">
+        <v>13</v>
+      </c>
+      <c r="I33">
+        <v>15.5</v>
+      </c>
+      <c r="J33">
+        <v>16</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>12.964285714285714</v>
+      </c>
+      <c r="L33">
+        <v>252.375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>10000284</v>
+      </c>
+      <c r="B34" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" t="s">
+        <v>243</v>
+      </c>
+      <c r="D34">
+        <v>12.25</v>
+      </c>
+      <c r="E34">
+        <v>11</v>
+      </c>
+      <c r="F34">
+        <v>13.5</v>
+      </c>
+      <c r="G34">
+        <v>14.75</v>
+      </c>
+      <c r="H34">
+        <v>11</v>
+      </c>
+      <c r="I34">
+        <v>12.5</v>
+      </c>
+      <c r="J34">
+        <v>13.5</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ref="K34:K52" si="1">AVERAGE(D34:J34)</f>
+        <v>12.642857142857142</v>
+      </c>
+      <c r="L34">
+        <v>251.875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>10000296</v>
+      </c>
+      <c r="B35" t="s">
+        <v>227</v>
+      </c>
+      <c r="C35" t="s">
+        <v>250</v>
+      </c>
+      <c r="D35">
+        <v>10.5</v>
+      </c>
+      <c r="E35">
+        <v>9.5</v>
+      </c>
+      <c r="F35">
+        <v>12</v>
+      </c>
+      <c r="G35">
+        <v>15</v>
+      </c>
+      <c r="H35">
+        <v>15</v>
+      </c>
+      <c r="I35">
+        <v>16</v>
+      </c>
+      <c r="J35">
+        <v>11</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>12.714285714285714</v>
+      </c>
+      <c r="L35">
+        <v>250.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>10000267</v>
+      </c>
+      <c r="B36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36">
+        <v>12.5</v>
+      </c>
+      <c r="E36">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>12.5</v>
+      </c>
+      <c r="G36">
+        <v>13.5</v>
+      </c>
+      <c r="H36">
+        <v>11</v>
+      </c>
+      <c r="I36">
+        <v>12.5</v>
+      </c>
+      <c r="J36">
+        <v>13.75</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>12.535714285714286</v>
+      </c>
+      <c r="L36">
+        <v>249.625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>10000287</v>
+      </c>
+      <c r="B37" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" t="s">
+        <v>244</v>
+      </c>
+      <c r="D37">
+        <v>17</v>
+      </c>
+      <c r="E37">
+        <v>17.5</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>9.75</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>11</v>
+      </c>
+      <c r="J37">
+        <v>12.5</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>11.821428571428571</v>
+      </c>
+      <c r="L37">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>10000271</v>
+      </c>
+      <c r="B38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>10.5</v>
+      </c>
+      <c r="E38">
+        <v>14</v>
+      </c>
+      <c r="F38">
+        <v>13.5</v>
+      </c>
+      <c r="G38">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>10.5</v>
+      </c>
+      <c r="I38">
+        <v>15.75</v>
+      </c>
+      <c r="J38">
+        <v>10.5</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>12.25</v>
+      </c>
+      <c r="L38">
+        <v>244.125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>10000275</v>
+      </c>
+      <c r="B39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39">
+        <v>13.25</v>
+      </c>
+      <c r="E39">
+        <v>12.75</v>
+      </c>
+      <c r="F39">
+        <v>14.25</v>
+      </c>
+      <c r="G39">
+        <v>11</v>
+      </c>
+      <c r="H39">
+        <v>11.25</v>
+      </c>
+      <c r="I39">
+        <v>10.5</v>
+      </c>
+      <c r="J39">
+        <v>10.5</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>11.928571428571429</v>
+      </c>
+      <c r="L39">
+        <v>243.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>10000295</v>
+      </c>
+      <c r="B40" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40" t="s">
+        <v>249</v>
+      </c>
+      <c r="D40">
+        <v>13.5</v>
+      </c>
+      <c r="E40">
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <v>11</v>
+      </c>
+      <c r="G40">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>13</v>
+      </c>
+      <c r="I40">
+        <v>14</v>
+      </c>
+      <c r="J40">
+        <v>11</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>12.071428571428571</v>
+      </c>
+      <c r="L40">
+        <v>243.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>10000269</v>
+      </c>
+      <c r="B41" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41">
+        <v>11</v>
+      </c>
+      <c r="E41">
+        <v>15.5</v>
+      </c>
+      <c r="F41">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>12.2</v>
+      </c>
+      <c r="H41">
+        <v>13</v>
+      </c>
+      <c r="I41">
+        <v>11</v>
+      </c>
+      <c r="J41">
+        <v>11</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>12.1</v>
+      </c>
+      <c r="L41">
+        <v>241.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>10000266</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B42" t="s">
         <v>198</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C42" t="s">
         <v>236</v>
       </c>
-      <c r="D18">
+      <c r="D42">
         <v>14</v>
       </c>
-      <c r="E18">
-        <v>11</v>
-      </c>
-      <c r="F18">
+      <c r="E42">
+        <v>11</v>
+      </c>
+      <c r="F42">
         <v>10</v>
       </c>
-      <c r="G18">
-        <v>11</v>
-      </c>
-      <c r="H18">
+      <c r="G42">
+        <v>11</v>
+      </c>
+      <c r="H42">
         <v>12</v>
       </c>
-      <c r="I18">
+      <c r="I42">
         <v>13</v>
       </c>
-      <c r="J18">
+      <c r="J42">
         <v>13</v>
       </c>
-      <c r="K18">
+      <c r="K42">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L18">
+      <c r="L42">
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>10000267</v>
-      </c>
-      <c r="B19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" t="s">
-        <v>237</v>
-      </c>
-      <c r="D19">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>10000294</v>
+      </c>
+      <c r="B43" t="s">
+        <v>225</v>
+      </c>
+      <c r="C43" t="s">
+        <v>248</v>
+      </c>
+      <c r="D43">
+        <v>13</v>
+      </c>
+      <c r="E43">
+        <v>10.5</v>
+      </c>
+      <c r="F43">
+        <v>10.5</v>
+      </c>
+      <c r="G43">
+        <v>14</v>
+      </c>
+      <c r="H43">
+        <v>11</v>
+      </c>
+      <c r="I43">
+        <v>12.25</v>
+      </c>
+      <c r="J43">
+        <v>10</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>11.607142857142858</v>
+      </c>
+      <c r="L43">
+        <v>236.625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>10000282</v>
+      </c>
+      <c r="B44" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>15</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>10.5</v>
+      </c>
+      <c r="I44">
+        <v>11</v>
+      </c>
+      <c r="J44">
+        <v>12</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>11.642857142857142</v>
+      </c>
+      <c r="L44">
+        <v>233.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>10000280</v>
+      </c>
+      <c r="B45" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" t="s">
+        <v>239</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+      <c r="E45">
         <v>12.5</v>
       </c>
-      <c r="E19">
+      <c r="F45">
+        <v>11.5</v>
+      </c>
+      <c r="G45">
+        <v>10.5</v>
+      </c>
+      <c r="H45">
+        <v>11</v>
+      </c>
+      <c r="I45">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="J45">
+        <v>12</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>11.642857142857142</v>
+      </c>
+      <c r="L45">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>10000279</v>
+      </c>
+      <c r="B46" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46">
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>11</v>
+      </c>
+      <c r="F46">
         <v>12.5</v>
       </c>
-      <c r="G19">
+      <c r="G46">
+        <v>11.5</v>
+      </c>
+      <c r="H46">
+        <v>12.5</v>
+      </c>
+      <c r="I46">
+        <v>11.5</v>
+      </c>
+      <c r="J46">
+        <v>10.5</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="L46">
+        <v>230.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>10000290</v>
+      </c>
+      <c r="B47" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" t="s">
+        <v>204</v>
+      </c>
+      <c r="D47">
+        <v>10.5</v>
+      </c>
+      <c r="E47">
+        <v>9.5</v>
+      </c>
+      <c r="F47">
+        <v>11</v>
+      </c>
+      <c r="G47">
+        <v>12.5</v>
+      </c>
+      <c r="H47">
+        <v>11.5</v>
+      </c>
+      <c r="I47">
+        <v>13</v>
+      </c>
+      <c r="J47">
+        <v>11</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>11.285714285714286</v>
+      </c>
+      <c r="L47">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>10000299</v>
+      </c>
+      <c r="B48" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" t="s">
+        <v>253</v>
+      </c>
+      <c r="D48">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E48">
+        <v>9.5</v>
+      </c>
+      <c r="F48">
+        <v>9.5</v>
+      </c>
+      <c r="G48">
+        <v>14.5</v>
+      </c>
+      <c r="H48">
+        <v>8.75</v>
+      </c>
+      <c r="I48">
+        <v>12.5</v>
+      </c>
+      <c r="J48">
+        <v>15.5</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>11.492857142857144</v>
+      </c>
+      <c r="L48">
+        <v>222.77500000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>10000278</v>
+      </c>
+      <c r="B49" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>10.5</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>8.75</v>
+      </c>
+      <c r="H49">
+        <v>12</v>
+      </c>
+      <c r="I49">
         <v>13.5</v>
       </c>
-      <c r="H19">
-        <v>11</v>
-      </c>
-      <c r="I19">
-        <v>12.5</v>
-      </c>
-      <c r="J19">
-        <v>13.75</v>
-      </c>
-      <c r="K19">
+      <c r="J49">
+        <v>13</v>
+      </c>
+      <c r="K49">
         <f t="shared" si="1"/>
-        <v>12.535714285714286</v>
-      </c>
-      <c r="L19">
-        <v>249.625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>10000268</v>
-      </c>
-      <c r="B20" t="s">
-        <v>200</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>12.75</v>
-      </c>
-      <c r="E20">
-        <v>15.5</v>
-      </c>
-      <c r="F20">
+        <v>11.25</v>
+      </c>
+      <c r="L49">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>10000273</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <v>13</v>
+      </c>
+      <c r="E50">
+        <v>11</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+      <c r="H50">
         <v>16</v>
       </c>
-      <c r="G20">
-        <v>14.25</v>
-      </c>
-      <c r="H20">
-        <v>11</v>
-      </c>
-      <c r="I20">
-        <v>12</v>
-      </c>
-      <c r="J20">
-        <v>10</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="1"/>
-        <v>13.071428571428571</v>
-      </c>
-      <c r="L20">
-        <v>267.125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>10000269</v>
-      </c>
-      <c r="B21" t="s">
-        <v>201</v>
-      </c>
-      <c r="C21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21">
-        <v>11</v>
-      </c>
-      <c r="E21">
-        <v>15.5</v>
-      </c>
-      <c r="F21">
-        <v>11</v>
-      </c>
-      <c r="G21">
-        <v>12.2</v>
-      </c>
-      <c r="H21">
-        <v>13</v>
-      </c>
-      <c r="I21">
-        <v>11</v>
-      </c>
-      <c r="J21">
-        <v>11</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="1"/>
-        <v>12.1</v>
-      </c>
-      <c r="L21">
-        <v>241.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>10000270</v>
-      </c>
-      <c r="B22" t="s">
-        <v>202</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22">
-        <v>15</v>
-      </c>
-      <c r="E22">
-        <v>13</v>
-      </c>
-      <c r="F22">
-        <v>13</v>
-      </c>
-      <c r="G22">
-        <v>14.5</v>
-      </c>
-      <c r="H22">
-        <v>15</v>
-      </c>
-      <c r="I22">
-        <v>17</v>
-      </c>
-      <c r="J22">
-        <v>15</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="1"/>
-        <v>14.642857142857142</v>
-      </c>
-      <c r="L22">
-        <v>291.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>10000271</v>
-      </c>
-      <c r="B23" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23">
+      <c r="I50">
         <v>10.5</v>
       </c>
-      <c r="E23">
-        <v>14</v>
-      </c>
-      <c r="F23">
-        <v>13.5</v>
-      </c>
-      <c r="G23">
-        <v>11</v>
-      </c>
-      <c r="H23">
-        <v>10.5</v>
-      </c>
-      <c r="I23">
-        <v>15.75</v>
-      </c>
-      <c r="J23">
-        <v>10.5</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="1"/>
-        <v>12.25</v>
-      </c>
-      <c r="L23">
-        <v>244.125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>10000272</v>
-      </c>
-      <c r="B24" t="s">
-        <v>204</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24">
-        <v>13</v>
-      </c>
-      <c r="E24">
-        <v>15.5</v>
-      </c>
-      <c r="F24">
-        <v>11</v>
-      </c>
-      <c r="G24">
-        <v>17.5</v>
-      </c>
-      <c r="H24">
-        <v>11</v>
-      </c>
-      <c r="I24">
-        <v>10.5</v>
-      </c>
-      <c r="J24">
-        <v>11</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="1"/>
-        <v>12.785714285714286</v>
-      </c>
-      <c r="L24">
-        <v>260.75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>10000273</v>
-      </c>
-      <c r="B25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25">
-        <v>13</v>
-      </c>
-      <c r="E25">
-        <v>11</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25">
-        <v>10</v>
-      </c>
-      <c r="H25">
-        <v>16</v>
-      </c>
-      <c r="I25">
-        <v>10.5</v>
-      </c>
-      <c r="J25">
+      <c r="J50">
         <v>11.5</v>
       </c>
-      <c r="K25">
+      <c r="K50">
         <f t="shared" si="1"/>
         <v>10.857142857142858</v>
       </c>
-      <c r="L25">
+      <c r="L50">
         <v>221.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>10000274</v>
-      </c>
-      <c r="B26" t="s">
-        <v>205</v>
-      </c>
-      <c r="C26" t="s">
-        <v>238</v>
-      </c>
-      <c r="D26">
-        <v>13.5</v>
-      </c>
-      <c r="E26">
-        <v>12.5</v>
-      </c>
-      <c r="F26">
-        <v>15</v>
-      </c>
-      <c r="G26">
-        <v>16</v>
-      </c>
-      <c r="H26">
-        <v>17.5</v>
-      </c>
-      <c r="I26">
-        <v>11</v>
-      </c>
-      <c r="J26">
-        <v>14.45</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="1"/>
-        <v>14.278571428571428</v>
-      </c>
-      <c r="L26">
-        <v>279.64999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>10000275</v>
-      </c>
-      <c r="B27" t="s">
-        <v>206</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27">
-        <v>13.25</v>
-      </c>
-      <c r="E27">
-        <v>12.75</v>
-      </c>
-      <c r="F27">
-        <v>14.25</v>
-      </c>
-      <c r="G27">
-        <v>11</v>
-      </c>
-      <c r="H27">
-        <v>11.25</v>
-      </c>
-      <c r="I27">
-        <v>10.5</v>
-      </c>
-      <c r="J27">
-        <v>10.5</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="1"/>
-        <v>11.928571428571429</v>
-      </c>
-      <c r="L27">
-        <v>243.75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>10000276</v>
-      </c>
-      <c r="B28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28">
-        <v>14</v>
-      </c>
-      <c r="E28">
-        <v>18</v>
-      </c>
-      <c r="F28">
-        <v>9</v>
-      </c>
-      <c r="G28">
-        <v>9.5</v>
-      </c>
-      <c r="H28">
-        <v>14</v>
-      </c>
-      <c r="I28">
-        <v>15</v>
-      </c>
-      <c r="J28">
-        <v>14</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="1"/>
-        <v>13.357142857142858</v>
-      </c>
-      <c r="L28">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>10000277</v>
-      </c>
-      <c r="B29" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29">
-        <v>14.25</v>
-      </c>
-      <c r="E29">
-        <v>11</v>
-      </c>
-      <c r="F29">
-        <v>13.5</v>
-      </c>
-      <c r="G29">
-        <v>14</v>
-      </c>
-      <c r="H29">
-        <v>15</v>
-      </c>
-      <c r="I29">
-        <v>14</v>
-      </c>
-      <c r="J29">
-        <v>14</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="1"/>
-        <v>13.678571428571429</v>
-      </c>
-      <c r="L29">
-        <v>273.125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>10000278</v>
-      </c>
-      <c r="B30" t="s">
-        <v>209</v>
-      </c>
-      <c r="C30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30">
-        <v>12</v>
-      </c>
-      <c r="E30">
-        <v>10.5</v>
-      </c>
-      <c r="F30">
-        <v>9</v>
-      </c>
-      <c r="G30">
-        <v>8.75</v>
-      </c>
-      <c r="H30">
-        <v>12</v>
-      </c>
-      <c r="I30">
-        <v>13.5</v>
-      </c>
-      <c r="J30">
-        <v>13</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="1"/>
-        <v>11.25</v>
-      </c>
-      <c r="L30">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>10000279</v>
-      </c>
-      <c r="B31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31">
-        <v>11</v>
-      </c>
-      <c r="E31">
-        <v>11</v>
-      </c>
-      <c r="F31">
-        <v>12.5</v>
-      </c>
-      <c r="G31">
-        <v>11.5</v>
-      </c>
-      <c r="H31">
-        <v>12.5</v>
-      </c>
-      <c r="I31">
-        <v>11.5</v>
-      </c>
-      <c r="J31">
-        <v>10.5</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="1"/>
-        <v>11.5</v>
-      </c>
-      <c r="L31">
-        <v>230.25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>10000280</v>
-      </c>
-      <c r="B32" t="s">
-        <v>212</v>
-      </c>
-      <c r="C32" t="s">
-        <v>239</v>
-      </c>
-      <c r="D32">
-        <v>12</v>
-      </c>
-      <c r="E32">
-        <v>12.5</v>
-      </c>
-      <c r="F32">
-        <v>11.5</v>
-      </c>
-      <c r="G32">
-        <v>10.5</v>
-      </c>
-      <c r="H32">
-        <v>11</v>
-      </c>
-      <c r="I32">
-        <v>12</v>
-      </c>
-      <c r="J32">
-        <v>12</v>
-      </c>
-      <c r="K32">
-        <f t="shared" ref="K32:K37" si="2">AVERAGE(D32:J32)</f>
-        <v>11.642857142857142</v>
-      </c>
-      <c r="L32">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>10000281</v>
-      </c>
-      <c r="B33" t="s">
-        <v>213</v>
-      </c>
-      <c r="C33" t="s">
-        <v>240</v>
-      </c>
-      <c r="D33">
-        <v>18.75</v>
-      </c>
-      <c r="E33">
-        <v>16</v>
-      </c>
-      <c r="F33">
-        <v>12</v>
-      </c>
-      <c r="G33">
-        <v>10</v>
-      </c>
-      <c r="H33">
-        <v>11</v>
-      </c>
-      <c r="I33">
-        <v>11.5</v>
-      </c>
-      <c r="J33">
-        <v>13</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="2"/>
-        <v>13.178571428571429</v>
-      </c>
-      <c r="L33">
-        <v>274.125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>10000282</v>
-      </c>
-      <c r="B34" t="s">
-        <v>214</v>
-      </c>
-      <c r="C34" t="s">
-        <v>241</v>
-      </c>
-      <c r="D34">
-        <v>12</v>
-      </c>
-      <c r="E34">
-        <v>15</v>
-      </c>
-      <c r="F34">
-        <v>10</v>
-      </c>
-      <c r="G34">
-        <v>11</v>
-      </c>
-      <c r="H34">
-        <v>10.5</v>
-      </c>
-      <c r="I34">
-        <v>11</v>
-      </c>
-      <c r="J34">
-        <v>12</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="2"/>
-        <v>11.642857142857142</v>
-      </c>
-      <c r="L34">
-        <v>233.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>10000283</v>
-      </c>
-      <c r="B35" t="s">
-        <v>215</v>
-      </c>
-      <c r="C35" t="s">
-        <v>242</v>
-      </c>
-      <c r="D35">
-        <v>13</v>
-      </c>
-      <c r="E35">
-        <v>14</v>
-      </c>
-      <c r="F35">
-        <v>14.5</v>
-      </c>
-      <c r="G35">
-        <v>15</v>
-      </c>
-      <c r="H35">
-        <v>16</v>
-      </c>
-      <c r="I35">
-        <v>10.25</v>
-      </c>
-      <c r="J35">
-        <v>11</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="2"/>
-        <v>13.392857142857142</v>
-      </c>
-      <c r="L35">
-        <v>271.125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>10000284</v>
-      </c>
-      <c r="B36" t="s">
-        <v>216</v>
-      </c>
-      <c r="C36" t="s">
-        <v>243</v>
-      </c>
-      <c r="D36">
-        <v>12.25</v>
-      </c>
-      <c r="E36">
-        <v>11</v>
-      </c>
-      <c r="F36">
-        <v>13.5</v>
-      </c>
-      <c r="G36">
-        <v>14.75</v>
-      </c>
-      <c r="H36">
-        <v>11</v>
-      </c>
-      <c r="I36">
-        <v>12.5</v>
-      </c>
-      <c r="J36">
-        <v>13.5</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="2"/>
-        <v>12.642857142857142</v>
-      </c>
-      <c r="L36">
-        <v>251.875</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>10000285</v>
-      </c>
-      <c r="B37" t="s">
-        <v>217</v>
-      </c>
-      <c r="C37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37">
-        <v>15.5</v>
-      </c>
-      <c r="E37">
-        <v>16</v>
-      </c>
-      <c r="F37">
-        <v>17</v>
-      </c>
-      <c r="G37">
-        <v>15</v>
-      </c>
-      <c r="H37">
-        <v>17</v>
-      </c>
-      <c r="I37">
-        <v>16</v>
-      </c>
-      <c r="J37">
-        <v>15.25</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="2"/>
-        <v>15.964285714285714</v>
-      </c>
-      <c r="L37">
-        <v>319.125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>10000286</v>
-      </c>
-      <c r="B38" t="s">
-        <v>218</v>
-      </c>
-      <c r="C38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38">
-        <v>18</v>
-      </c>
-      <c r="E38">
-        <v>17</v>
-      </c>
-      <c r="F38">
-        <v>17</v>
-      </c>
-      <c r="G38">
-        <v>14</v>
-      </c>
-      <c r="H38">
-        <v>13</v>
-      </c>
-      <c r="I38">
-        <v>14</v>
-      </c>
-      <c r="J38">
-        <v>11</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="1"/>
-        <v>14.857142857142858</v>
-      </c>
-      <c r="L38">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>10000287</v>
-      </c>
-      <c r="B39" t="s">
-        <v>219</v>
-      </c>
-      <c r="C39" t="s">
-        <v>244</v>
-      </c>
-      <c r="D39">
-        <v>17</v>
-      </c>
-      <c r="E39">
-        <v>17.5</v>
-      </c>
-      <c r="F39">
-        <v>10</v>
-      </c>
-      <c r="G39">
-        <v>9.75</v>
-      </c>
-      <c r="H39">
-        <v>5</v>
-      </c>
-      <c r="I39">
-        <v>11</v>
-      </c>
-      <c r="J39">
-        <v>12.5</v>
-      </c>
-      <c r="K39">
-        <f t="shared" ref="K39:K52" si="3">AVERAGE(D39:J39)</f>
-        <v>11.821428571428571</v>
-      </c>
-      <c r="L39">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>10000288</v>
-      </c>
-      <c r="B40" t="s">
-        <v>220</v>
-      </c>
-      <c r="C40" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40">
-        <v>17.5</v>
-      </c>
-      <c r="E40">
-        <v>16</v>
-      </c>
-      <c r="F40">
-        <v>11</v>
-      </c>
-      <c r="G40">
-        <v>12</v>
-      </c>
-      <c r="H40">
-        <v>16</v>
-      </c>
-      <c r="I40">
-        <v>16</v>
-      </c>
-      <c r="J40">
-        <v>10.5</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="3"/>
-        <v>14.142857142857142</v>
-      </c>
-      <c r="L40">
-        <v>291.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>10000289</v>
-      </c>
-      <c r="B41" t="s">
-        <v>221</v>
-      </c>
-      <c r="C41" t="s">
-        <v>245</v>
-      </c>
-      <c r="D41">
-        <v>17</v>
-      </c>
-      <c r="E41">
-        <v>15</v>
-      </c>
-      <c r="F41">
-        <v>12</v>
-      </c>
-      <c r="G41">
-        <v>13.5</v>
-      </c>
-      <c r="H41">
-        <v>11</v>
-      </c>
-      <c r="I41">
-        <v>11</v>
-      </c>
-      <c r="J41">
-        <v>12.5</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="3"/>
-        <v>13.142857142857142</v>
-      </c>
-      <c r="L41">
-        <v>271.75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>10000290</v>
-      </c>
-      <c r="B42" t="s">
-        <v>222</v>
-      </c>
-      <c r="C42" t="s">
-        <v>204</v>
-      </c>
-      <c r="D42">
-        <v>10.5</v>
-      </c>
-      <c r="E42">
-        <v>9.5</v>
-      </c>
-      <c r="F42">
-        <v>11</v>
-      </c>
-      <c r="G42">
-        <v>12.5</v>
-      </c>
-      <c r="H42">
-        <v>11.5</v>
-      </c>
-      <c r="I42">
-        <v>13</v>
-      </c>
-      <c r="J42">
-        <v>11</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="3"/>
-        <v>11.285714285714286</v>
-      </c>
-      <c r="L42">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>10000291</v>
-      </c>
-      <c r="B43" t="s">
-        <v>223</v>
-      </c>
-      <c r="C43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43">
-        <v>10.25</v>
-      </c>
-      <c r="E43">
-        <v>9.75</v>
-      </c>
-      <c r="F43">
-        <v>10.5</v>
-      </c>
-      <c r="G43">
-        <v>11</v>
-      </c>
-      <c r="H43">
-        <v>12.25</v>
-      </c>
-      <c r="I43">
-        <v>11</v>
-      </c>
-      <c r="J43">
-        <v>12.25</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="L43" s="16">
-        <v>216375</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>10000292</v>
-      </c>
-      <c r="B44" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" t="s">
-        <v>246</v>
-      </c>
-      <c r="D44">
-        <v>11.5</v>
-      </c>
-      <c r="E44">
-        <v>10</v>
-      </c>
-      <c r="F44">
-        <v>9.5</v>
-      </c>
-      <c r="G44">
-        <v>10.25</v>
-      </c>
-      <c r="H44">
-        <v>11</v>
-      </c>
-      <c r="I44">
-        <v>11</v>
-      </c>
-      <c r="J44">
-        <v>12.25</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="3"/>
-        <v>10.785714285714286</v>
-      </c>
-      <c r="L44">
-        <v>214.375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>10000293</v>
-      </c>
-      <c r="B45" t="s">
-        <v>224</v>
-      </c>
-      <c r="C45" t="s">
-        <v>247</v>
-      </c>
-      <c r="D45">
-        <v>10.25</v>
-      </c>
-      <c r="E45">
-        <v>9.5</v>
-      </c>
-      <c r="F45">
-        <v>12</v>
-      </c>
-      <c r="G45">
-        <v>11</v>
-      </c>
-      <c r="H45">
-        <v>12.25</v>
-      </c>
-      <c r="I45">
-        <v>11</v>
-      </c>
-      <c r="J45">
-        <v>10.25</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="3"/>
-        <v>10.892857142857142</v>
-      </c>
-      <c r="L45">
-        <v>217.125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>10000294</v>
-      </c>
-      <c r="B46" t="s">
-        <v>225</v>
-      </c>
-      <c r="C46" t="s">
-        <v>248</v>
-      </c>
-      <c r="D46">
-        <v>13</v>
-      </c>
-      <c r="E46">
-        <v>10.5</v>
-      </c>
-      <c r="F46">
-        <v>10.5</v>
-      </c>
-      <c r="G46">
-        <v>14</v>
-      </c>
-      <c r="H46">
-        <v>11</v>
-      </c>
-      <c r="I46">
-        <v>12.25</v>
-      </c>
-      <c r="J46">
-        <v>10</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="3"/>
-        <v>11.607142857142858</v>
-      </c>
-      <c r="L46">
-        <v>236.625</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>10000295</v>
-      </c>
-      <c r="B47" t="s">
-        <v>226</v>
-      </c>
-      <c r="C47" t="s">
-        <v>249</v>
-      </c>
-      <c r="D47">
-        <v>13.5</v>
-      </c>
-      <c r="E47">
-        <v>11</v>
-      </c>
-      <c r="F47">
-        <v>11</v>
-      </c>
-      <c r="G47">
-        <v>11</v>
-      </c>
-      <c r="H47">
-        <v>13</v>
-      </c>
-      <c r="I47">
-        <v>14</v>
-      </c>
-      <c r="J47">
-        <v>11</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="3"/>
-        <v>12.071428571428571</v>
-      </c>
-      <c r="L47">
-        <v>243.75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>10000296</v>
-      </c>
-      <c r="B48" t="s">
-        <v>227</v>
-      </c>
-      <c r="C48" t="s">
-        <v>250</v>
-      </c>
-      <c r="D48">
-        <v>10.5</v>
-      </c>
-      <c r="E48">
-        <v>9.5</v>
-      </c>
-      <c r="F48">
-        <v>12</v>
-      </c>
-      <c r="G48">
-        <v>15</v>
-      </c>
-      <c r="H48">
-        <v>15</v>
-      </c>
-      <c r="I48">
-        <v>16</v>
-      </c>
-      <c r="J48">
-        <v>11</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="3"/>
-        <v>12.714285714285714</v>
-      </c>
-      <c r="L48">
-        <v>250.75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>10000297</v>
-      </c>
-      <c r="B49" t="s">
-        <v>228</v>
-      </c>
-      <c r="C49" t="s">
-        <v>251</v>
-      </c>
-      <c r="D49">
-        <v>11.5</v>
-      </c>
-      <c r="E49">
-        <v>11</v>
-      </c>
-      <c r="F49">
-        <v>15</v>
-      </c>
-      <c r="G49">
-        <v>14.5</v>
-      </c>
-      <c r="H49">
-        <v>12</v>
-      </c>
-      <c r="I49">
-        <v>14</v>
-      </c>
-      <c r="J49">
-        <v>11</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="3"/>
-        <v>12.714285714285714</v>
-      </c>
-      <c r="L49">
-        <v>254.75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>10000298</v>
-      </c>
-      <c r="B50" t="s">
-        <v>229</v>
-      </c>
-      <c r="C50" t="s">
-        <v>252</v>
-      </c>
-      <c r="D50">
-        <v>12.25</v>
-      </c>
-      <c r="E50">
-        <v>11</v>
-      </c>
-      <c r="F50">
-        <v>11</v>
-      </c>
-      <c r="G50">
-        <v>12</v>
-      </c>
-      <c r="H50">
-        <v>13</v>
-      </c>
-      <c r="I50">
-        <v>15.5</v>
-      </c>
-      <c r="J50">
-        <v>16</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="3"/>
-        <v>12.964285714285714</v>
-      </c>
-      <c r="L50">
-        <v>252.375</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>10000299</v>
+        <v>10000293</v>
       </c>
       <c r="B51" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C51" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D51">
-        <v>10.199999999999999</v>
+        <v>10.25</v>
       </c>
       <c r="E51">
         <v>9.5</v>
       </c>
       <c r="F51">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="G51">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="H51">
-        <v>8.75</v>
+        <v>12.25</v>
       </c>
       <c r="I51">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="J51">
-        <v>15.5</v>
+        <v>10.25</v>
       </c>
       <c r="K51">
-        <f t="shared" si="3"/>
-        <v>11.492857142857144</v>
+        <f t="shared" si="1"/>
+        <v>10.892857142857142</v>
       </c>
       <c r="L51">
-        <v>222.77500000000001</v>
+        <v>217.125</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>10000300</v>
+        <v>10000292</v>
       </c>
       <c r="B52" t="s">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D52">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="E52">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="F52">
-        <v>14</v>
+        <v>9.5</v>
       </c>
       <c r="G52">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="H52">
         <v>11</v>
       </c>
       <c r="I52">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J52">
-        <v>17</v>
+        <v>12.25</v>
       </c>
       <c r="K52">
-        <f t="shared" si="3"/>
-        <v>14.857142857142858</v>
+        <f t="shared" si="1"/>
+        <v>10.785714285714286</v>
       </c>
       <c r="L52">
-        <v>298</v>
+        <v>214.375</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:L53">
+    <sortCondition descending="1" ref="L1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7481,8 +7578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0867F9DA-36D0-4AF0-99C1-C4DDEDACCE05}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8008,11 +8105,277 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B9D044-99FB-4C19-8B77-037A7EE9CA53}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10000207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2">
+        <v>14.892857142857142</v>
+      </c>
+      <c r="E2">
+        <v>304</v>
+      </c>
+      <c r="G2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10000204</v>
+      </c>
+      <c r="B3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3">
+        <v>13.857142857142858</v>
+      </c>
+      <c r="E3">
+        <v>279.625</v>
+      </c>
+      <c r="G3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10000206</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>13.75</v>
+      </c>
+      <c r="E4">
+        <v>273</v>
+      </c>
+      <c r="G4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10000202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>13.714285714285714</v>
+      </c>
+      <c r="E5">
+        <v>268.375</v>
+      </c>
+      <c r="G5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10000211</v>
+      </c>
+      <c r="B6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6">
+        <v>13.571428571428571</v>
+      </c>
+      <c r="E6">
+        <v>266</v>
+      </c>
+      <c r="G6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10000201</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7">
+        <v>13.071428571428571</v>
+      </c>
+      <c r="E7">
+        <v>259.75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10000203</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8">
+        <v>12.571428571428571</v>
+      </c>
+      <c r="E8">
+        <v>250.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10000208</v>
+      </c>
+      <c r="B9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9">
+        <v>12.642857142857142</v>
+      </c>
+      <c r="E9">
+        <v>250</v>
+      </c>
+      <c r="G9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10000205</v>
+      </c>
+      <c r="B10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10">
+        <v>12.178571428571429</v>
+      </c>
+      <c r="E10">
+        <v>249.625</v>
+      </c>
+      <c r="G10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10000209</v>
+      </c>
+      <c r="B11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>247.375</v>
+      </c>
+      <c r="G11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10000210</v>
+      </c>
+      <c r="B12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12">
+        <v>12.178571428571429</v>
+      </c>
+      <c r="E12">
+        <v>241.125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:G12">
+    <sortCondition descending="1" ref="E1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F07EF9-9519-4E79-8A61-7CDD4C02F986}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8500,12 +8863,311 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A29685-6E21-4FA1-B932-F3B82FB2FB82}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10000056</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2">
+        <v>17.5</v>
+      </c>
+      <c r="E2">
+        <v>364.2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10000057</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3">
+        <v>16.64</v>
+      </c>
+      <c r="E3">
+        <v>342.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10000053</v>
+      </c>
+      <c r="B4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>15.33</v>
+      </c>
+      <c r="E4">
+        <v>312.75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10000054</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5">
+        <v>14.89</v>
+      </c>
+      <c r="E5">
+        <v>302</v>
+      </c>
+      <c r="F5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10000052</v>
+      </c>
+      <c r="B6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>14.06</v>
+      </c>
+      <c r="E6">
+        <v>284.75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10000055</v>
+      </c>
+      <c r="B7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7">
+        <v>13.75</v>
+      </c>
+      <c r="E7">
+        <v>270.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10000058</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8">
+        <v>13.67</v>
+      </c>
+      <c r="E8">
+        <v>269.75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10000051</v>
+      </c>
+      <c r="B9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9">
+        <v>12.95</v>
+      </c>
+      <c r="E9">
+        <v>262.45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>321</v>
+      </c>
+      <c r="G9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10000060</v>
+      </c>
+      <c r="B10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10">
+        <v>12.125</v>
+      </c>
+      <c r="E10">
+        <v>249.875</v>
+      </c>
+      <c r="F10" t="s">
+        <v>320</v>
+      </c>
+      <c r="G10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10000059</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11">
+        <v>12.708333333333334</v>
+      </c>
+      <c r="E11">
+        <v>248.5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>321</v>
+      </c>
+      <c r="G11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10000061</v>
+      </c>
+      <c r="B12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12">
+        <v>11.416666666666666</v>
+      </c>
+      <c r="E12">
+        <v>231.75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>320</v>
+      </c>
+      <c r="G12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:G13">
+    <sortCondition descending="1" ref="E1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC0FBFC-C930-481B-98FB-46A07EA12A9B}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8985,4 +9647,250 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0511DC35-6197-49BF-A5A7-1607DF74A594}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="52.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10000310</v>
+      </c>
+      <c r="B2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>15.799999999999999</v>
+      </c>
+      <c r="E2">
+        <v>386.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10000303</v>
+      </c>
+      <c r="B3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>14.607142857142858</v>
+      </c>
+      <c r="E3">
+        <v>291.375</v>
+      </c>
+      <c r="G3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10000302</v>
+      </c>
+      <c r="B4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4">
+        <v>14.357142857142858</v>
+      </c>
+      <c r="E4">
+        <v>284.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10000301</v>
+      </c>
+      <c r="B5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5">
+        <v>14.285714285714286</v>
+      </c>
+      <c r="E5">
+        <v>275.75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10000306</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6">
+        <v>13.928571428571429</v>
+      </c>
+      <c r="E6">
+        <v>273</v>
+      </c>
+      <c r="G6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10000308</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7">
+        <v>12.75</v>
+      </c>
+      <c r="E7">
+        <v>262.625</v>
+      </c>
+      <c r="G7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10000307</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>12.821428571428571</v>
+      </c>
+      <c r="E8">
+        <v>261.25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10000309</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>12.821428571428571</v>
+      </c>
+      <c r="E9">
+        <v>260.25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10000304</v>
+      </c>
+      <c r="B10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>12.857142857142858</v>
+      </c>
+      <c r="E10">
+        <v>260.125</v>
+      </c>
+      <c r="G10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10000305</v>
+      </c>
+      <c r="B11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>11.785714285714286</v>
+      </c>
+      <c r="E11">
+        <v>242.25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:G11">
+    <sortCondition descending="1" ref="E1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>